--- a/matrixmixer-active-4x4.xlsx
+++ b/matrixmixer-active-4x4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="994" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="matrixmixer-active-4x4" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="53">
   <si>
     <t xml:space="preserve">Qty</t>
   </si>
@@ -40,6 +40,9 @@
     <t xml:space="preserve">Description</t>
   </si>
   <si>
+    <t xml:space="preserve">Notes</t>
+  </si>
+  <si>
     <t xml:space="preserve">100k</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t xml:space="preserve">9mm vertical snap-in pot, Alpha / Panasonic style</t>
   </si>
   <si>
+    <t xml:space="preserve">Alpha pots recommended – for best results, use T-18 pots and Befaco micro-knobs or similar.</t>
+  </si>
+  <si>
     <t xml:space="preserve">100n</t>
   </si>
   <si>
@@ -70,6 +76,9 @@
     <t xml:space="preserve">CAPACITOR, European symbol</t>
   </si>
   <si>
+    <t xml:space="preserve">C1-C4 should be fitted to the rear side of the board – this should be done before the DIL sockets for the op-amps are added.</t>
+  </si>
+  <si>
     <t xml:space="preserve">10k</t>
   </si>
   <si>
@@ -127,6 +136,9 @@
     <t xml:space="preserve">R25, R26</t>
   </si>
   <si>
+    <t xml:space="preserve">Ferrite beads or polyfuses can also be used.</t>
+  </si>
+  <si>
     <t xml:space="preserve">47k</t>
   </si>
   <si>
@@ -164,6 +176,9 @@
   </si>
   <si>
     <t xml:space="preserve">OP AMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TL074/084 recommended – any pin-compatible quad op-amp should work.</t>
   </si>
 </sst>
 </file>
@@ -178,6 +193,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -199,6 +215,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -273,21 +290,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.47959183673469"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3316326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.6275510204082"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.1632653061224"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="106.75"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="41.5867346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="106.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="41.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="101.06"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -309,25 +327,31 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
         <v>20</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -335,19 +359,22 @@
         <v>6</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -355,19 +382,19 @@
         <v>4</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -375,19 +402,19 @@
         <v>2</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -395,19 +422,19 @@
         <v>2</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -415,19 +442,19 @@
         <v>4</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -435,19 +462,22 @@
         <v>2</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -455,19 +485,19 @@
         <v>20</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -475,16 +505,16 @@
         <v>1</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -492,19 +522,19 @@
         <v>8</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -512,25 +542,28 @@
         <v>2</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/matrixmixer-active-4x4.xlsx
+++ b/matrixmixer-active-4x4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
   <si>
     <t xml:space="preserve">Qty</t>
   </si>
@@ -179,6 +179,15 @@
   </si>
   <si>
     <t xml:space="preserve">TL074/084 recommended – any pin-compatible quad op-amp should work.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTE: populate JP1-4 depending on whether you want the inputs to be AC or DC coupled. For DC coupling, wire links or zero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ohm links will work. For AC coupling, use a 100nF ceramic capacitor – if you plan to exploit mixer feedback then AC coupling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is recommended in order to prevent the op-amps latching up.</t>
   </si>
 </sst>
 </file>
@@ -290,10 +299,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -303,7 +312,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="106.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="41.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="41.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="101.06"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.52"/>
   </cols>
@@ -558,6 +567,21 @@
       </c>
       <c r="G12" s="0" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E15" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E16" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E17" s="0" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
